--- a/femba/functions and sim code/functional_simulation_parameters.xlsx
+++ b/femba/functions and sim code/functional_simulation_parameters.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t xml:space="preserve">parameter</t>
   </si>
@@ -36,79 +36,91 @@
     <t xml:space="preserve">chosen_prior</t>
   </si>
   <si>
+    <t xml:space="preserve">rgamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take_abs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prior_parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list(shape=1, scale=4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho_mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perfect_covariance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curve modeling method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_iterations_algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_iterations_algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_change_algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_iterations_Uupdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_iterations_Uupdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_change_Uupdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribution</t>
+  </si>
+  <si>
     <t xml:space="preserve">rnorm</t>
   </si>
   <si>
-    <t xml:space="preserve">take_abs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prior_parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list(mean=0, sd=1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_mu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iterations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rho_mu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rho_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">take_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top_k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfect_covariance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curve modeling method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_iterations_algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_iterations_algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_change_algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_iterations_Uupdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_iterations_Uupdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_change_Uupdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distribution</t>
-  </si>
-  <si>
     <t xml:space="preserve">parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">list(mean=c(-3, 3), sd=c(1,2))</t>
+    <t xml:space="preserve">list(mean=c(-5, 1), sd=c(1,2))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make_symmetric</t>
   </si>
   <si>
     <t xml:space="preserve">n_curves</t>
@@ -169,9 +181,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -247,11 +260,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,10 +288,10 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.38"/>
@@ -293,139 +306,136 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="0" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <f aca="false"> "FALSE"</f>
-        <v>FALSE</v>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+      <c r="A7" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
+      <c r="A8" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+      <c r="A9" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+      <c r="A10" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
+      <c r="A11" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.0005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="0" t="str">
-        <f aca="false">"FALSE"</f>
-        <v>FALSE</v>
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
+      <c r="A13" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="0" t="str">
-        <f aca="false">"TRUE"</f>
-        <v>TRUE</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
+      <c r="A17" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -433,33 +443,33 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>1E-006</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
+      <c r="A20" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -479,13 +489,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.9"/>
@@ -501,18 +511,18 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,90 +535,99 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>100</v>
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f aca="false">"TRUE"</f>
+        <v>TRUE</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>21</v>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="n">
         <v>1E-006</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>24</v>
+      <c r="A14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -634,7 +653,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.82"/>
@@ -649,37 +668,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -687,10 +706,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>10000</v>
@@ -698,10 +717,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -709,10 +728,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0.5</v>
@@ -720,10 +739,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -731,10 +750,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>30</v>
@@ -742,10 +761,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>1E-006</v>
@@ -753,10 +772,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -764,10 +783,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -775,10 +794,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1E-006</v>

--- a/femba/functions and sim code/functional_simulation_parameters.xlsx
+++ b/femba/functions and sim code/functional_simulation_parameters.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t xml:space="preserve">parameter</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">chosen_prior</t>
   </si>
   <si>
-    <t xml:space="preserve">rgamma</t>
+    <t xml:space="preserve">rpareto</t>
   </si>
   <si>
     <t xml:space="preserve">take_abs</t>
@@ -45,10 +45,13 @@
     <t xml:space="preserve">FALSE</t>
   </si>
   <si>
+    <t xml:space="preserve">make_symmetric</t>
+  </si>
+  <si>
     <t xml:space="preserve">prior_parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">list(shape=1, scale=4)</t>
+    <t xml:space="preserve">list(alpha=3.0001)</t>
   </si>
   <si>
     <t xml:space="preserve">p_mu</t>
@@ -111,34 +114,31 @@
     <t xml:space="preserve">distribution</t>
   </si>
   <si>
+    <t xml:space="preserve">parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list(alpha=3.00001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_curves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_restarts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho_misspecification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desired Distribution</t>
+  </si>
+  <si>
     <t xml:space="preserve">rnorm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list(mean=c(-5, 1), sd=c(1,2))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make_symmetric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_curves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_restarts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rho_misspecification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desired Distribution</t>
   </si>
   <si>
     <t xml:space="preserve">Named list of  arguments to distribution function</t>
@@ -285,13 +285,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.38"/>
@@ -333,16 +333,16 @@
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,7 +350,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,7 +358,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,7 +366,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,23 +382,23 @@
         <v>14</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.0005</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
+      <c r="B12" s="0" t="n">
+        <v>0.0005</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,31 +406,31 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
+      <c r="B15" s="0" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>21</v>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,7 +438,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,7 +446,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1E-006</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,7 +454,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1</v>
+        <v>1E-006</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,7 +462,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,6 +470,14 @@
         <v>27</v>
       </c>
       <c r="B22" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="0" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -492,10 +500,10 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.9"/>
@@ -511,17 +519,17 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -536,24 +544,24 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f aca="false">"TRUE"</f>
-        <v>TRUE</v>
+        <f aca="false">"FALSE"</f>
+        <v>FALSE</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1000</v>
@@ -561,7 +569,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>10</v>
@@ -569,7 +577,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5</v>
@@ -577,7 +585,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -585,7 +593,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -593,7 +601,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -601,7 +609,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>1E-006</v>
@@ -609,7 +617,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -617,7 +625,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -625,7 +633,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>1E-006</v>
@@ -653,7 +661,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.82"/>
@@ -668,18 +676,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +703,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>41</v>
@@ -706,7 +714,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>42</v>
@@ -717,7 +725,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>43</v>
@@ -728,7 +736,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>44</v>
@@ -739,7 +747,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>45</v>
@@ -750,7 +758,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>46</v>
@@ -761,7 +769,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>47</v>
@@ -772,7 +780,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>48</v>
@@ -783,7 +791,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>49</v>
@@ -794,7 +802,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>50</v>

--- a/femba/functions and sim code/functional_simulation_parameters.xlsx
+++ b/femba/functions and sim code/functional_simulation_parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tweedie Simulations" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t xml:space="preserve">parameter</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">chosen_prior</t>
   </si>
   <si>
-    <t xml:space="preserve">rpareto</t>
+    <t xml:space="preserve">rgamma</t>
   </si>
   <si>
     <t xml:space="preserve">take_abs</t>
@@ -51,7 +51,7 @@
     <t xml:space="preserve">prior_parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">list(alpha=3.0001)</t>
+    <t xml:space="preserve">list(shape=1, scale=4)</t>
   </si>
   <si>
     <t xml:space="preserve">p_mu</t>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve">parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list(alpha=3.00001)</t>
   </si>
   <si>
     <t xml:space="preserve">n_curves</t>
@@ -287,11 +284,11 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.38"/>
@@ -366,7 +363,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,7 +403,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,7 +411,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,11 +496,11 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.9"/>
@@ -530,7 +527,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,12 +553,12 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1000</v>
@@ -569,7 +566,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>10</v>
@@ -577,7 +574,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5</v>
@@ -585,7 +582,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -661,7 +658,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.82"/>
@@ -676,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,10 +681,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,10 +692,10 @@
         <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -714,10 +711,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>10000</v>
@@ -725,10 +722,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -736,10 +733,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0.5</v>
@@ -750,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -761,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>30</v>
@@ -772,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>1E-006</v>
@@ -783,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -794,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -805,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1E-006</v>

--- a/femba/functions and sim code/functional_simulation_parameters.xlsx
+++ b/femba/functions and sim code/functional_simulation_parameters.xlsx
@@ -288,7 +288,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.54296875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.5625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.33"/>
@@ -500,7 +500,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.84"/>
@@ -658,11 +658,11 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.19921875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/femba/functions and sim code/functional_simulation_parameters.xlsx
+++ b/femba/functions and sim code/functional_simulation_parameters.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t xml:space="preserve">parameter</t>
   </si>
@@ -114,7 +114,13 @@
     <t xml:space="preserve">distribution</t>
   </si>
   <si>
+    <t xml:space="preserve">rweibullmix</t>
+  </si>
+  <si>
     <t xml:space="preserve">parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list(lambda=c(0.25,0.75), shape=c(1.5,3), scale=c(0.1,5))</t>
   </si>
   <si>
     <t xml:space="preserve">n_curves</t>
@@ -248,7 +254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,6 +265,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -288,7 +302,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.61328125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.33"/>
@@ -497,10 +511,10 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.28125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.84"/>
@@ -514,69 +528,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <f aca="false">"FALSE"</f>
-        <v>FALSE</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <f aca="false">"FALSE"</f>
-        <v>FALSE</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="B6" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="0" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="0" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -585,7 +597,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,7 +620,7 @@
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="5" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -632,7 +644,7 @@
       <c r="A16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="5" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -658,7 +670,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.28125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.83"/>
@@ -673,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,21 +693,21 @@
         <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,7 +715,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -711,10 +723,10 @@
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>10000</v>
@@ -722,10 +734,10 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -733,10 +745,10 @@
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0.5</v>
@@ -747,7 +759,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -758,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>30</v>
@@ -768,10 +780,10 @@
       <c r="A10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="3" t="n">
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -780,7 +792,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -791,7 +803,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -801,10 +813,10 @@
       <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3" t="n">
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>1E-006</v>
       </c>
     </row>

--- a/femba/functions and sim code/functional_simulation_parameters.xlsx
+++ b/femba/functions and sim code/functional_simulation_parameters.xlsx
@@ -120,7 +120,7 @@
     <t xml:space="preserve">parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">list(lambda=c(0.25,0.75), shape=c(1.5,3), scale=c(0.1,5))</t>
+    <t xml:space="preserve">list(lambda=c(0.25,0.75), shape=c(1.1,14), scale=c(0.1,5))</t>
   </si>
   <si>
     <t xml:space="preserve">n_curves</t>
@@ -302,7 +302,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.61328125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.71484375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.33"/>
@@ -511,10 +511,10 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.3828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.84"/>
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,7 +670,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.3828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.83"/>

--- a/femba/functions and sim code/functional_simulation_parameters.xlsx
+++ b/femba/functions and sim code/functional_simulation_parameters.xlsx
@@ -114,13 +114,13 @@
     <t xml:space="preserve">distribution</t>
   </si>
   <si>
-    <t xml:space="preserve">rweibullmix</t>
+    <t xml:space="preserve">rgamma</t>
   </si>
   <si>
     <t xml:space="preserve">parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">list(lambda=c(0.25,0.75), shape=c(1.1,14), scale=c(0.1,5))</t>
+    <t xml:space="preserve">list(shape=1, scale=4)</t>
   </si>
   <si>
     <t xml:space="preserve">n_curves</t>
@@ -302,7 +302,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.71484375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.00390625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.33"/>
@@ -511,13 +511,13 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.3828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.6796875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,18 +529,18 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -670,7 +670,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.3828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.6796875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.83"/>

--- a/femba/functions and sim code/functional_simulation_parameters.xlsx
+++ b/femba/functions and sim code/functional_simulation_parameters.xlsx
@@ -114,13 +114,13 @@
     <t xml:space="preserve">distribution</t>
   </si>
   <si>
-    <t xml:space="preserve">rgamma</t>
+    <t xml:space="preserve">rweibullmix</t>
   </si>
   <si>
     <t xml:space="preserve">parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">list(shape=1, scale=4)</t>
+    <t xml:space="preserve">list(lambda=c(0.25,0.75), shape=c(1.1,14), scale=c(0.1,5))</t>
   </si>
   <si>
     <t xml:space="preserve">n_curves</t>
@@ -299,10 +299,10 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="2:3 B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.00390625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.4453125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.33"/>
@@ -511,10 +511,10 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6796875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.07421875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.59"/>
@@ -667,10 +667,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="2:3 B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6796875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.07421875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.83"/>
